--- a/code/tool/name.xlsx
+++ b/code/tool/name.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailnankaieducn-my.sharepoint.com/personal/1710030_mail_nankai_edu_cn/Documents/document/works/学堂云code/old/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrd/OneDrive - mail.nankai.edu.cn/document/works/学堂云code/code/code/tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{FBE927CD-E951-904F-AF61-03C3E0487EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5777E1BB-A8D1-6841-A3A1-50230D179A2E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{FBE927CD-E951-904F-AF61-03C3E0487EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D1E7A985-E822-424C-B432-2F241787E1E8}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="960" windowWidth="27620" windowHeight="16540" xr2:uid="{F0658E74-C6B3-654B-AD5C-27A06C484A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,288 +45,284 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蔡佳君</t>
-  </si>
-  <si>
-    <t>蔡欣雨</t>
-  </si>
-  <si>
-    <t>曹楚堃</t>
-  </si>
-  <si>
-    <t>曹佳宁</t>
-  </si>
-  <si>
-    <t>曾婧煌</t>
-  </si>
-  <si>
-    <t>陈思思</t>
-  </si>
-  <si>
-    <t>陈思雨</t>
-  </si>
-  <si>
-    <t>陈烨烨</t>
-  </si>
-  <si>
-    <t>程馨月</t>
-  </si>
-  <si>
-    <t>邓佳颖</t>
-  </si>
-  <si>
-    <t>邓云喆</t>
-  </si>
-  <si>
-    <t>董仲康</t>
-  </si>
-  <si>
-    <t>杜明睿</t>
-  </si>
-  <si>
-    <t>段宇暄</t>
-  </si>
-  <si>
-    <t>方鸿铭</t>
-  </si>
-  <si>
-    <t>方世雨</t>
-  </si>
-  <si>
-    <t>高静雪</t>
-  </si>
-  <si>
-    <t>高力飞</t>
-  </si>
-  <si>
-    <t>葛明威</t>
-  </si>
-  <si>
-    <t>耿家乐</t>
-  </si>
-  <si>
-    <t>洪立哲</t>
-  </si>
-  <si>
-    <t>胡逸姚</t>
-  </si>
-  <si>
-    <t>黄倩</t>
-  </si>
-  <si>
-    <t>焦娇</t>
-  </si>
-  <si>
-    <t>雷晶超</t>
-  </si>
-  <si>
-    <t>李方倩</t>
-  </si>
-  <si>
-    <t>李泓赫</t>
-  </si>
-  <si>
-    <t>李若璞</t>
-  </si>
-  <si>
-    <t>李绍瑝</t>
-  </si>
-  <si>
-    <t>李智涛</t>
-  </si>
-  <si>
-    <t>李卓豪</t>
-  </si>
-  <si>
-    <t>梁光宇</t>
-  </si>
-  <si>
-    <t>梁嘉禾</t>
-  </si>
-  <si>
-    <t>林敏</t>
-  </si>
-  <si>
-    <t>林一</t>
-  </si>
-  <si>
-    <t>刘定邦</t>
-  </si>
-  <si>
-    <t>刘恩田</t>
-  </si>
-  <si>
-    <t>刘华旭</t>
-  </si>
-  <si>
-    <t>刘家汇</t>
-  </si>
-  <si>
-    <t>刘静琦</t>
-  </si>
-  <si>
-    <t>刘甜甜</t>
-  </si>
-  <si>
-    <t>刘枭鹏</t>
-  </si>
-  <si>
-    <t>刘潇阳</t>
-  </si>
-  <si>
-    <t>卢嘉欣</t>
-  </si>
-  <si>
-    <t>卢宇</t>
-  </si>
-  <si>
-    <t>卢云文</t>
-  </si>
-  <si>
-    <t>陆泺</t>
-  </si>
-  <si>
-    <t>路明臻</t>
-  </si>
-  <si>
-    <t>罗梓艺</t>
-  </si>
-  <si>
-    <t>吕欣欣</t>
-  </si>
-  <si>
-    <t>马睿彤</t>
-  </si>
-  <si>
-    <t>马瑜</t>
-  </si>
-  <si>
-    <t>毛淑扬</t>
-  </si>
-  <si>
-    <t>孟辰阳</t>
-  </si>
-  <si>
-    <t>那润泽</t>
-  </si>
-  <si>
-    <t>牛子瑄</t>
-  </si>
-  <si>
-    <t>任汉杰</t>
-  </si>
-  <si>
-    <t>沈熙杰</t>
-  </si>
-  <si>
-    <t>石梦瑶</t>
-  </si>
-  <si>
-    <t>石洋硕</t>
-  </si>
-  <si>
-    <t>石宜灵</t>
-  </si>
-  <si>
-    <t>双宗尧</t>
-  </si>
-  <si>
-    <t>宋珏盈</t>
-  </si>
-  <si>
-    <t>宋硕硕</t>
-  </si>
-  <si>
-    <t>宋亚澎</t>
-  </si>
-  <si>
-    <t>田浩文</t>
-  </si>
-  <si>
-    <t>佟泽栋</t>
-  </si>
-  <si>
-    <t>童沛焱</t>
-  </si>
-  <si>
-    <t>王晨旭</t>
-  </si>
-  <si>
-    <t>王凯</t>
-  </si>
-  <si>
-    <t>王信智</t>
-  </si>
-  <si>
-    <t>王涌</t>
-  </si>
-  <si>
-    <t>王振宇</t>
-  </si>
-  <si>
-    <t>王滋源</t>
-  </si>
-  <si>
-    <t>蔚居宏</t>
-  </si>
-  <si>
-    <t>温展鸿</t>
-  </si>
-  <si>
-    <t>肖和</t>
-  </si>
-  <si>
-    <t>谢森宇</t>
-  </si>
-  <si>
-    <t>熊靖威</t>
-  </si>
-  <si>
-    <t>徐锦程</t>
-  </si>
-  <si>
-    <t>徐缙恒</t>
-  </si>
-  <si>
-    <t>薛子桥</t>
-  </si>
-  <si>
-    <t>杨杰</t>
-  </si>
-  <si>
-    <t>杨乃群</t>
-  </si>
-  <si>
-    <t>姚一鸣</t>
-  </si>
-  <si>
-    <t>易康宇</t>
-  </si>
-  <si>
-    <t>雍家祺</t>
-  </si>
-  <si>
-    <t>余旺</t>
-  </si>
-  <si>
-    <t>张炜林</t>
-  </si>
-  <si>
-    <t>张月</t>
-  </si>
-  <si>
-    <t>张子豪</t>
+    <t>韩学义</t>
+  </si>
+  <si>
+    <t>黄文豪</t>
+  </si>
+  <si>
+    <t>谭浩东</t>
+  </si>
+  <si>
+    <t>许家瑞</t>
+  </si>
+  <si>
+    <t>铎悠洋</t>
+  </si>
+  <si>
+    <t>马鸿飞</t>
+  </si>
+  <si>
+    <t>杨皓程</t>
+  </si>
+  <si>
+    <t>叶雨锟</t>
+  </si>
+  <si>
+    <t>刘子卓</t>
+  </si>
+  <si>
+    <t>程炜超</t>
+  </si>
+  <si>
+    <t>孙广源</t>
+  </si>
+  <si>
+    <t>赵向旭</t>
+  </si>
+  <si>
+    <t>韩智慧</t>
+  </si>
+  <si>
+    <t>刘骥扬</t>
+  </si>
+  <si>
+    <t>王颖</t>
+  </si>
+  <si>
+    <t>董漪芃</t>
+  </si>
+  <si>
+    <t>那宇涵</t>
+  </si>
+  <si>
+    <t>陶美玥</t>
+  </si>
+  <si>
+    <t>王晓静</t>
+  </si>
+  <si>
+    <t>王啸天</t>
+  </si>
+  <si>
+    <t>王锡锦</t>
+  </si>
+  <si>
+    <t>王新元</t>
+  </si>
+  <si>
+    <t>吴鼎铭</t>
+  </si>
+  <si>
+    <t>吴桐</t>
+  </si>
+  <si>
+    <t>沈冠驰</t>
+  </si>
+  <si>
+    <t>莫乾坤</t>
+  </si>
+  <si>
+    <t>蒲春宏</t>
+  </si>
+  <si>
+    <t>尚方剑</t>
+  </si>
+  <si>
+    <t>赵轶臻</t>
+  </si>
+  <si>
+    <t>孟炜棋</t>
+  </si>
+  <si>
+    <t>周斌</t>
+  </si>
+  <si>
+    <t>周浩天</t>
+  </si>
+  <si>
+    <t>张慧敏</t>
+  </si>
+  <si>
+    <t>林立峥</t>
+  </si>
+  <si>
+    <t>张驰</t>
+  </si>
+  <si>
+    <t>张峻源</t>
   </si>
   <si>
     <t>周塬峻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕昕悦</t>
+  </si>
+  <si>
+    <t>董世宸</t>
+  </si>
+  <si>
+    <t>李凯隆</t>
+  </si>
+  <si>
+    <t>刘楠</t>
+  </si>
+  <si>
+    <t>刘雨杉</t>
+  </si>
+  <si>
+    <t>王帅淳</t>
+  </si>
+  <si>
+    <t>高龙</t>
+  </si>
+  <si>
+    <t>邱盛超</t>
+  </si>
+  <si>
+    <t>王嘉麟</t>
+  </si>
+  <si>
+    <t>杨毅文</t>
+  </si>
+  <si>
+    <t>王子轩</t>
+  </si>
+  <si>
+    <t>苏楀轩</t>
+  </si>
+  <si>
+    <t>孙钰</t>
+  </si>
+  <si>
+    <t>白怡凡</t>
+  </si>
+  <si>
+    <t>李祏睿</t>
+  </si>
+  <si>
+    <t>郭佳磊</t>
+  </si>
+  <si>
+    <t>韩帅龙</t>
+  </si>
+  <si>
+    <t>李成志</t>
+  </si>
+  <si>
+    <t>何苗苗</t>
+  </si>
+  <si>
+    <t>张峰鸣</t>
+  </si>
+  <si>
+    <t>王明宇</t>
+  </si>
+  <si>
+    <t>徐一泽</t>
+  </si>
+  <si>
+    <t>李蔓莹</t>
+  </si>
+  <si>
+    <t>赵思璇</t>
+  </si>
+  <si>
+    <t>马思齐</t>
+  </si>
+  <si>
+    <t>马子璇</t>
+  </si>
+  <si>
+    <t>胡乔</t>
+  </si>
+  <si>
+    <t>安妮</t>
+  </si>
+  <si>
+    <t>康毅恒</t>
+  </si>
+  <si>
+    <t>BELY</t>
+  </si>
+  <si>
+    <t>周宇涵</t>
+  </si>
+  <si>
+    <t>甘乐献</t>
+  </si>
+  <si>
+    <t>孙冬炎</t>
+  </si>
+  <si>
+    <t>刘盈</t>
+  </si>
+  <si>
+    <t>乔靖婧</t>
+  </si>
+  <si>
+    <t>姜泓宇</t>
+  </si>
+  <si>
+    <t>柴心原</t>
+  </si>
+  <si>
+    <t>何峻潇</t>
+  </si>
+  <si>
+    <t>江嘉伟</t>
+  </si>
+  <si>
+    <t>江宇宸</t>
+  </si>
+  <si>
+    <t>程子诤</t>
+  </si>
+  <si>
+    <t>陈卓</t>
+  </si>
+  <si>
+    <t>成运奇</t>
+  </si>
+  <si>
+    <t>姜明宇</t>
+  </si>
+  <si>
+    <t>孙佳成</t>
+  </si>
+  <si>
+    <t>张君维</t>
+  </si>
+  <si>
+    <t>李成恩</t>
+  </si>
+  <si>
+    <t>陈天滋</t>
+  </si>
+  <si>
+    <t>梁梓龙</t>
+  </si>
+  <si>
+    <t>周宇明</t>
+  </si>
+  <si>
+    <t>孙哲元</t>
+  </si>
+  <si>
+    <t>王孟锦</t>
+  </si>
+  <si>
+    <t>王梓聪</t>
+  </si>
+  <si>
+    <t>荣亚萍</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -340,6 +337,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -364,8 +367,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9255C3A7-DAF9-3448-BA68-B8C8C794DD38}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -702,463 +708,463 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
